--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fecha</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>2019-05-16</t>
+  </si>
+  <si>
+    <t>leche de soja con copos de maiz</t>
   </si>
   <si>
     <t>leche con avena</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,24 +447,29 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Cena</t>
   </si>
   <si>
-    <t>2019-05-15</t>
-  </si>
-  <si>
     <t>2019-05-16</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>leche con avena</t>
   </si>
   <si>
-    <t>Ensalada de atún</t>
+    <t>Tortilla francesa(2 huevos)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,30 +443,31 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -40,13 +40,25 @@
     <t>2019-05-16</t>
   </si>
   <si>
+    <t>2019-05-18</t>
+  </si>
+  <si>
     <t>leche de soja con copos de maiz</t>
   </si>
   <si>
+    <t>leche de soja con avena</t>
+  </si>
+  <si>
     <t>leche con avena</t>
   </si>
   <si>
     <t>Tortilla francesa(2 huevos)</t>
+  </si>
+  <si>
+    <t>Manzana Asada</t>
+  </si>
+  <si>
+    <t>yogurt griego con muesli</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -464,10 +476,30 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>2019-05-18</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
   </si>
   <si>
     <t>leche de soja con copos de maiz</t>
@@ -416,90 +419,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>2019-05-18</t>
-  </si>
-  <si>
-    <t>2019-05-22</t>
   </si>
   <si>
     <t>leche de soja con copos de maiz</t>
@@ -419,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +453,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,24 +484,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,6 +43,9 @@
     <t>2019-05-18</t>
   </si>
   <si>
+    <t>2019-05-23</t>
+  </si>
+  <si>
     <t>leche de soja con copos de maiz</t>
   </si>
   <si>
@@ -52,13 +55,19 @@
     <t>leche con avena</t>
   </si>
   <si>
+    <t>Manzana Asada</t>
+  </si>
+  <si>
     <t>Tortilla francesa(2 huevos)</t>
   </si>
   <si>
-    <t>Manzana Asada</t>
+    <t>150 gr de pasta + 100 gr lomo de ternera + platano</t>
   </si>
   <si>
     <t>yogurt griego con muesli</t>
+  </si>
+  <si>
+    <t>Ensalada de atún</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,13 +493,36 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Fecha</t>
   </si>
@@ -46,10 +46,16 @@
     <t>2019-05-23</t>
   </si>
   <si>
+    <t>2019-06-09</t>
+  </si>
+  <si>
     <t>leche de soja con copos de maiz</t>
   </si>
   <si>
     <t>leche de soja con avena</t>
+  </si>
+  <si>
+    <t>leche de soja con cereales</t>
   </si>
   <si>
     <t>leche con avena</t>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -479,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,19 +516,30 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9A378-04C6-4708-B983-B313D4476237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsrAl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Fecha</t>
   </si>
@@ -79,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +149,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -189,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -477,23 +532,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -501,44 +559,27 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Historial.xlsx
+++ b/Historial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9A378-04C6-4708-B983-B313D4476237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="UsrAl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -55,6 +49,9 @@
     <t>2019-06-09</t>
   </si>
   <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
     <t>leche de soja con copos de maiz</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>leche de soja con cereales</t>
   </si>
   <si>
+    <t>yogurt griego con muesli</t>
+  </si>
+  <si>
     <t>leche con avena</t>
   </si>
   <si>
@@ -76,7 +76,10 @@
     <t>150 gr de pasta + 100 gr lomo de ternera + platano</t>
   </si>
   <si>
-    <t>yogurt griego con muesli</t>
+    <t>150 gr pure de patata + 1 salchicha frankfurt + yogurt</t>
+  </si>
+  <si>
+    <t>platano</t>
   </si>
   <si>
     <t>Ensalada de atún</t>
@@ -85,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,19 +152,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,19 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -523,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -540,16 +494,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -557,22 +511,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -580,7 +534,30 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
